--- a/doc/synthese/Tableau_de_synthese-epreuve-E4.xlsx
+++ b/doc/synthese/Tableau_de_synthese-epreuve-E4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\portfolio\doc\synthese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D79781-54E4-4301-A40E-669F8A12789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172ACB29-7309-4ECF-897D-328AEC59D2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>▢ SLAM</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
     <t>Compétences mises en œuvre
 Réalisations professionnelles
 (intitulé et liste des documents et productions associés)</t>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>NOM et prénom : DOMINGUES Alexandre</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://llexxs.github.io/Portfolio/</t>
   </si>
 </sst>
 </file>
@@ -698,15 +698,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,36 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1179,8 +1179,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="64" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1219,30 +1219,30 @@
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
+      <c r="A3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="32"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="A4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1254,63 +1254,63 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="B6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="34"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1349,16 +1349,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="A8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1397,15 +1397,15 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="44">
+        <v>24</v>
+      </c>
+      <c r="B9" s="22">
         <v>44877</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="45" t="s">
-        <v>31</v>
+      <c r="E9" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1448,16 +1448,16 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="44">
+        <v>25</v>
+      </c>
+      <c r="B10" s="22">
         <v>44891</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="45" t="s">
-        <v>31</v>
+      <c r="F10" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
@@ -1499,17 +1499,17 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="44">
+        <v>26</v>
+      </c>
+      <c r="B11" s="22">
         <v>44197</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="45" t="s">
-        <v>31</v>
+      <c r="G11" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11"/>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="44">
+        <v>27</v>
+      </c>
+      <c r="B12" s="22">
         <v>44877</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>31</v>
+      <c r="C12" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -1601,9 +1601,9 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="44">
+        <v>28</v>
+      </c>
+      <c r="B13" s="22">
         <v>44228</v>
       </c>
       <c r="C13" s="15"/>
@@ -1611,8 +1611,8 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="45" t="s">
-        <v>31</v>
+      <c r="H13" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1876,16 +1876,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+      <c r="A19" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1924,19 +1924,19 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="44">
+        <v>29</v>
+      </c>
+      <c r="B20" s="22">
         <v>44699</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="45" t="s">
-        <v>31</v>
+      <c r="E20" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="45" t="s">
-        <v>31</v>
+      <c r="G20" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20"/>
@@ -2246,16 +2246,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="A27" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2294,19 +2294,19 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="44">
+        <v>29</v>
+      </c>
+      <c r="B28" s="22">
         <v>44803</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="45" t="s">
-        <v>31</v>
+      <c r="E28" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="45" t="s">
-        <v>31</v>
+      <c r="G28" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28"/>
@@ -2708,11 +2708,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2720,6 +2715,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2731,12 +2731,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002338DD58AC86894E92A5BEFCB2D30A8D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5504d931c342a62d8ef3b8250e15468">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a54630e7-b857-4bdf-808b-f1da7c130004" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ff4448945ddeba0822e941b7cd0dfa6" ns2:_="">
     <xsd:import namespace="a54630e7-b857-4bdf-808b-f1da7c130004"/>
@@ -2868,6 +2862,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2878,15 +2878,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB7E142-A516-4C88-8FDA-E57B089332A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2904,6 +2895,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}">
   <ds:schemaRefs>

--- a/doc/synthese/Tableau_de_synthese-epreuve-E4.xlsx
+++ b/doc/synthese/Tableau_de_synthese-epreuve-E4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\portfolio\doc\synthese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172ACB29-7309-4ECF-897D-328AEC59D2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE1863-67D0-49D8-9580-987C1E1D6524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -35,18 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
-    <t>SESSION 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Option :</t>
@@ -128,21 +122,12 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>AP1 : la création de l'entreprise TAF et son site Web</t>
-  </si>
-  <si>
-    <t>AP2 : examiner les contextes professionnels des entreprises données M2L et GSB, relevé ses problèmatiques et proposer des solutions informatiques</t>
-  </si>
-  <si>
     <t>Projet à l'école : la création d'un site en PHP avec une base de données MySQL</t>
   </si>
   <si>
     <t>Inventaire du matériel en classe</t>
   </si>
   <si>
-    <t>Portfolio : créer un site web personnel</t>
-  </si>
-  <si>
     <t>Réalisation d'un ERP</t>
   </si>
   <si>
@@ -156,6 +141,41 @@
   </si>
   <si>
     <t>Adresse URL du portfolio : https://llexxs.github.io/Portfolio/</t>
+  </si>
+  <si>
+    <t>SESSION 2023</t>
+  </si>
+  <si>
+    <t>N° candidat :  02244065401</t>
+  </si>
+  <si>
+    <t>Gestion de ticketing et installation de GLPI</t>
+  </si>
+  <si>
+    <t>du 01/01/23
+au 01/01/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la création de l'entreprise TAF et son site Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> examiner les contextes professionnels des entreprises données M2L et GSB, relevé ses problèmatiques et proposer des solutions informatiques</t>
+  </si>
+  <si>
+    <t>Création d'un site pour l'entreprise M2L en ReactJS, NodeJS et MySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisation d'une application mobile en dart/flutter, NodeJS et Mysql pour la gestion des dtocks de l'entreprise M2L
+</t>
+  </si>
+  <si>
+    <t>Mise en place d'outils de veilles informationnels</t>
+  </si>
+  <si>
+    <t>Création d'un compte linkedin</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -633,7 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -704,9 +724,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -731,44 +790,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1180,137 +1203,137 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="70.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.73046875" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.3984375" customWidth="1"/>
     <col min="44" max="16384" width="10.86328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="32"/>
+      <c r="A3" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="45"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="A4" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="25"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="D7" s="20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="34"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>20</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1349,16 +1372,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="A8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1397,7 +1420,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B9" s="22">
         <v>44877</v>
@@ -1405,7 +1428,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1448,7 +1471,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B10" s="22">
         <v>44891</v>
@@ -1457,7 +1480,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
@@ -1499,7 +1522,7 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" s="22">
         <v>44197</v>
@@ -1509,7 +1532,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11"/>
@@ -1550,13 +1573,13 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="22">
         <v>44877</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -1601,7 +1624,7 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B13" s="22">
         <v>44228</v>
@@ -1612,7 +1635,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1651,10 +1674,16 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -1696,13 +1725,19 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
+      <c r="A15" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="H15" s="16"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -1741,13 +1776,19 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="H16" s="16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -1786,14 +1827,18 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
+      <c r="A17" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="H17" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1876,16 +1921,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
+      <c r="A19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1924,19 +1969,21 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" s="22">
         <v>44699</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="E20" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20"/>
@@ -2246,16 +2293,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="A27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2294,19 +2341,21 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B28" s="22">
         <v>44803</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E28" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28"/>
@@ -2708,6 +2757,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2715,11 +2769,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2731,6 +2780,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002338DD58AC86894E92A5BEFCB2D30A8D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5504d931c342a62d8ef3b8250e15468">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a54630e7-b857-4bdf-808b-f1da7c130004" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ff4448945ddeba0822e941b7cd0dfa6" ns2:_="">
     <xsd:import namespace="a54630e7-b857-4bdf-808b-f1da7c130004"/>
@@ -2862,12 +2917,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2878,6 +2927,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB7E142-A516-4C88-8FDA-E57B089332A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2895,15 +2953,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}">
   <ds:schemaRefs>

--- a/doc/synthese/Tableau_de_synthese-epreuve-E4.xlsx
+++ b/doc/synthese/Tableau_de_synthese-epreuve-E4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\portfolio\doc\synthese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE1863-67D0-49D8-9580-987C1E1D6524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38296519-21BD-46FF-A91D-592625FB7883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Inventaire du matériel en classe</t>
   </si>
   <si>
-    <t>Réalisation d'un ERP</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -150,16 +147,6 @@
   </si>
   <si>
     <t>Gestion de ticketing et installation de GLPI</t>
-  </si>
-  <si>
-    <t>du 01/01/23
-au 01/01/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la création de l'entreprise TAF et son site Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> examiner les contextes professionnels des entreprises données M2L et GSB, relevé ses problèmatiques et proposer des solutions informatiques</t>
   </si>
   <si>
     <t>Création d'un site pour l'entreprise M2L en ReactJS, NodeJS et MySQL</t>
@@ -176,6 +163,85 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Création de l'entreprise TAF et son site Web</t>
+  </si>
+  <si>
+    <t>du 12/11/2022 au 12/11/2022</t>
+  </si>
+  <si>
+    <t>Examiner les contextes professionnels des entreprises données M2L et GSB, relevé ses problèmatiques et proposer des solutions informatiques</t>
+  </si>
+  <si>
+    <t>du 26/11/2022 au 30/11/2022</t>
+  </si>
+  <si>
+    <t>du 01/01/2022 au 01/03/2022</t>
+  </si>
+  <si>
+    <t>du 10/01/2023 au 10/01/2023</t>
+  </si>
+  <si>
+    <t>du 01/02/2022 au 01/02/2022</t>
+  </si>
+  <si>
+    <t>du 01/11/2022 au 07/02/2023</t>
+  </si>
+  <si>
+    <t>du 07/02/2023 au 30/03/2023</t>
+  </si>
+  <si>
+    <t>du 10/10/2021 au 10/10/2021</t>
+  </si>
+  <si>
+    <t>Mise en place d'un serveur et d'une base de données sur Linux</t>
+  </si>
+  <si>
+    <t>Création d'un portfolio avec html, css et javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisation des test d'intégration avec Jest et supertest
+</t>
+  </si>
+  <si>
+    <t>du 20/03/2022 au 01/092022</t>
+  </si>
+  <si>
+    <t>du 01/02/2022 au 25/03/2023</t>
+  </si>
+  <si>
+    <t>Réalisation d'un ERP en symfony</t>
+  </si>
+  <si>
+    <t>du 18/05/2022 au 29/06/2022</t>
+  </si>
+  <si>
+    <t>du 13/03/2023 au 16/03/2023</t>
+  </si>
+  <si>
+    <t>Création de tâches à affecter</t>
+  </si>
+  <si>
+    <t>Mise en place de diféfrents formulaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de plusieurs CRUD </t>
+  </si>
+  <si>
+    <t>Mise en place de calendriers personnels</t>
+  </si>
+  <si>
+    <t>Suite du développement d'un ERP après le stage</t>
+  </si>
+  <si>
+    <t>du 31/08/2022 au 31/07/2023</t>
+  </si>
+  <si>
+    <t>Mise en place de fonctions récursives et utilisation de drag and drop</t>
+  </si>
+  <si>
+    <t>Développement de feuilles de calculs pour des devis en javascript</t>
   </si>
 </sst>
 </file>
@@ -653,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -724,15 +790,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,32 +856,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,64 +882,57 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>200917</xdr:colOff>
+      <xdr:colOff>186531</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133945</xdr:rowOff>
+      <xdr:rowOff>137715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:colOff>448469</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>439043</xdr:rowOff>
+      <xdr:rowOff>399653</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Signe de multiplication 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphique 3" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53724D1E-506F-9777-6E1A-D93325489250}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E170498D-AEA2-CDB8-BB64-2B57827D9B79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12702480" y="1666875"/>
-          <a:ext cx="275332" cy="305098"/>
+          <a:off x="13650119" y="1666478"/>
+          <a:ext cx="261938" cy="261938"/>
         </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1200,72 +1262,72 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="46" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="70.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.73046875" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.3984375" customWidth="1"/>
     <col min="44" max="16384" width="10.86328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="45"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="32"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1277,22 +1339,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="A5" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1315,8 +1377,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="25"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1372,16 +1434,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1420,15 +1482,15 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="22">
-        <v>44877</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1471,16 +1533,16 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="22">
-        <v>44891</v>
+        <v>38</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
@@ -1524,15 +1586,15 @@
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="22">
-        <v>44197</v>
+      <c r="B11" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11"/>
@@ -1575,11 +1637,11 @@
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="22">
-        <v>44877</v>
+      <c r="B12" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -1624,18 +1686,18 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="22">
-        <v>44228</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="23" t="s">
-        <v>25</v>
+      <c r="H13" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1675,14 +1737,14 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
-        <v>25</v>
+      <c r="D14" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -1726,17 +1788,19 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
-        <v>25</v>
+      <c r="E15" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
-        <v>25</v>
+      <c r="G15" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15"/>
@@ -1777,17 +1841,19 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>44</v>
+      </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>25</v>
+      <c r="E16" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
-        <v>25</v>
+      <c r="G16" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16"/>
@@ -1828,16 +1894,18 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>45</v>
+      </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="16" t="s">
-        <v>25</v>
+      <c r="H17" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -1876,9 +1944,15 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -1920,17 +1994,21 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="47" t="s">
+        <v>24</v>
+      </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1969,21 +2047,17 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="22">
-        <v>44699</v>
+        <v>48</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20"/>
@@ -2022,15 +2096,17 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
+      <c r="A21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2068,13 +2144,25 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="H22" s="16"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -2113,13 +2201,23 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="E23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="H23" s="16"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -2158,13 +2256,23 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="E24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="H24" s="16"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -2203,13 +2311,23 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="E25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="H25" s="16"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -2248,13 +2366,23 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="E26" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="H26" s="16"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -2292,17 +2420,15 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2339,25 +2465,17 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="22">
-        <v>44803</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="16"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
+      <c r="A28" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2395,13 +2513,25 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="D29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="H29" s="16"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -2440,13 +2570,23 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="E30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="H30" s="16"/>
       <c r="I30"/>
       <c r="J30"/>
@@ -2485,13 +2625,23 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="E31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2530,13 +2680,23 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="E32" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="H32" s="16"/>
       <c r="I32"/>
       <c r="J32"/>
@@ -2575,13 +2735,23 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="E33" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="H33" s="16"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -2619,15 +2789,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2664,15 +2834,15 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2709,7 +2879,51 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:43" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+    </row>
     <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2755,20 +2969,21 @@
     <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2780,12 +2995,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002338DD58AC86894E92A5BEFCB2D30A8D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5504d931c342a62d8ef3b8250e15468">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a54630e7-b857-4bdf-808b-f1da7c130004" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ff4448945ddeba0822e941b7cd0dfa6" ns2:_="">
     <xsd:import namespace="a54630e7-b857-4bdf-808b-f1da7c130004"/>
@@ -2917,6 +3126,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2927,15 +3142,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB7E142-A516-4C88-8FDA-E57B089332A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2953,6 +3159,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}">
   <ds:schemaRefs>

--- a/doc/synthese/Tableau_de_synthese-epreuve-E4.xlsx
+++ b/doc/synthese/Tableau_de_synthese-epreuve-E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\portfolio\doc\synthese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38296519-21BD-46FF-A91D-592625FB7883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78A26B6-1833-41AB-A248-C4F60C094079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Création d'un compte linkedin</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Création de l'entreprise TAF et son site Web</t>
@@ -790,9 +787,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -816,51 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1264,8 +1261,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="46" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1278,56 +1275,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="31" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="47"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1339,22 +1336,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1377,8 +1374,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="34"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1434,16 +1431,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1482,10 +1479,10 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -1533,10 +1530,10 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>39</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1587,7 +1584,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1638,7 +1635,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>24</v>
@@ -1689,14 +1686,14 @@
         <v>33</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="25" t="s">
         <v>24</v>
       </c>
       <c r="I13"/>
@@ -1740,7 +1737,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="23" t="s">
@@ -1791,7 +1788,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1843,8 +1840,8 @@
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>44</v>
+      <c r="B16" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1896,15 +1893,15 @@
       <c r="A17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>45</v>
+      <c r="B17" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="25" t="s">
         <v>24</v>
       </c>
       <c r="I17"/>
@@ -1945,10 +1942,10 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>24</v>
@@ -1996,17 +1993,17 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="25" t="s">
         <v>24</v>
       </c>
       <c r="I19"/>
@@ -2047,10 +2044,10 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2097,16 +2094,16 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2145,10 +2142,10 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>52</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
@@ -2202,10 +2199,10 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -2257,10 +2254,10 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -2312,10 +2309,10 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -2367,10 +2364,10 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -2466,16 +2463,16 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2514,15 +2511,13 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>59</v>
-      </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="D29" s="15"/>
       <c r="E29" s="23" t="s">
         <v>24</v>
       </c>
@@ -2571,10 +2566,10 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -2626,10 +2621,10 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="46" t="s">
         <v>59</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -2681,10 +2676,10 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -2736,10 +2731,10 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -2972,6 +2967,11 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2979,22 +2979,23 @@
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002338DD58AC86894E92A5BEFCB2D30A8D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5504d931c342a62d8ef3b8250e15468">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a54630e7-b857-4bdf-808b-f1da7c130004" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ff4448945ddeba0822e941b7cd0dfa6" ns2:_="">
     <xsd:import namespace="a54630e7-b857-4bdf-808b-f1da7c130004"/>
@@ -3126,12 +3127,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3142,6 +3137,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB7E142-A516-4C88-8FDA-E57B089332A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3159,15 +3170,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}">
   <ds:schemaRefs>

--- a/doc/synthese/Tableau_de_synthese-epreuve-E4.xlsx
+++ b/doc/synthese/Tableau_de_synthese-epreuve-E4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\portfolio\doc\synthese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78A26B6-1833-41AB-A248-C4F60C094079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584954C9-C708-487F-86A8-FED61C9F1751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -165,31 +165,7 @@
     <t>Création de l'entreprise TAF et son site Web</t>
   </si>
   <si>
-    <t>du 12/11/2022 au 12/11/2022</t>
-  </si>
-  <si>
     <t>Examiner les contextes professionnels des entreprises données M2L et GSB, relevé ses problèmatiques et proposer des solutions informatiques</t>
-  </si>
-  <si>
-    <t>du 26/11/2022 au 30/11/2022</t>
-  </si>
-  <si>
-    <t>du 01/01/2022 au 01/03/2022</t>
-  </si>
-  <si>
-    <t>du 10/01/2023 au 10/01/2023</t>
-  </si>
-  <si>
-    <t>du 01/02/2022 au 01/02/2022</t>
-  </si>
-  <si>
-    <t>du 01/11/2022 au 07/02/2023</t>
-  </si>
-  <si>
-    <t>du 07/02/2023 au 30/03/2023</t>
-  </si>
-  <si>
-    <t>du 10/10/2021 au 10/10/2021</t>
   </si>
   <si>
     <t>Mise en place d'un serveur et d'une base de données sur Linux</t>
@@ -202,21 +178,9 @@
 </t>
   </si>
   <si>
-    <t>du 20/03/2022 au 01/092022</t>
-  </si>
-  <si>
-    <t>du 01/02/2022 au 25/03/2023</t>
-  </si>
-  <si>
     <t>Réalisation d'un ERP en symfony</t>
   </si>
   <si>
-    <t>du 18/05/2022 au 29/06/2022</t>
-  </si>
-  <si>
-    <t>du 13/03/2023 au 16/03/2023</t>
-  </si>
-  <si>
     <t>Création de tâches à affecter</t>
   </si>
   <si>
@@ -232,13 +196,49 @@
     <t>Suite du développement d'un ERP après le stage</t>
   </si>
   <si>
-    <t>du 31/08/2022 au 31/07/2023</t>
-  </si>
-  <si>
     <t>Mise en place de fonctions récursives et utilisation de drag and drop</t>
   </si>
   <si>
     <t>Développement de feuilles de calculs pour des devis en javascript</t>
+  </si>
+  <si>
+    <t>du 12/11/22 au 12/11/22</t>
+  </si>
+  <si>
+    <t>du 26/11/22 au 30/11/22</t>
+  </si>
+  <si>
+    <t>du 01/01/22 au 01/03/22</t>
+  </si>
+  <si>
+    <t>du 01/02/22 au 01/02/22</t>
+  </si>
+  <si>
+    <t>du 10/01/23 au 10/01/23</t>
+  </si>
+  <si>
+    <t>du 01/11/22 au 07/02/23</t>
+  </si>
+  <si>
+    <t>du 07/02/23 au 30/03/23</t>
+  </si>
+  <si>
+    <t>du 10/10/21 au 10/10/21</t>
+  </si>
+  <si>
+    <t>du 20/03/22 au 01/09/22</t>
+  </si>
+  <si>
+    <t>du 01/02/22 au 25/03/23</t>
+  </si>
+  <si>
+    <t>du 13/03/23 au 16/03/23</t>
+  </si>
+  <si>
+    <t>du 18/05/22 au 29/06/22</t>
+  </si>
+  <si>
+    <t>du 31/08/22 au 31/07/23</t>
   </si>
 </sst>
 </file>
@@ -781,27 +781,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -835,29 +853,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1261,70 +1261,70 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="72" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="70.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.73046875" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.3984375" customWidth="1"/>
     <col min="44" max="16384" width="10.86328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="46" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="47"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="32"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1336,22 +1336,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1374,8 +1374,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1431,16 +1431,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1481,12 +1481,12 @@
       <c r="A9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>36</v>
+      <c r="B9" s="46" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="15"/>
@@ -1530,15 +1530,15 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="15"/>
@@ -1583,14 +1583,14 @@
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>39</v>
+      <c r="B11" s="46" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="16"/>
@@ -1634,10 +1634,10 @@
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="15"/>
@@ -1685,15 +1685,15 @@
       <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>41</v>
+      <c r="B13" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="23" t="s">
         <v>24</v>
       </c>
       <c r="I13"/>
@@ -1736,11 +1736,11 @@
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>40</v>
+      <c r="B14" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="15"/>
@@ -1787,16 +1787,16 @@
       <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>42</v>
+      <c r="B15" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="16"/>
@@ -1840,16 +1840,16 @@
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>43</v>
+      <c r="B16" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="16"/>
@@ -1893,15 +1893,15 @@
       <c r="A17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>44</v>
+      <c r="B17" s="46" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="23" t="s">
         <v>24</v>
       </c>
       <c r="I17"/>
@@ -1942,12 +1942,12 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="15"/>
@@ -1993,17 +1993,17 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="23" t="s">
         <v>24</v>
       </c>
       <c r="I19"/>
@@ -2044,16 +2044,16 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="16"/>
@@ -2094,16 +2094,16 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2142,22 +2142,20 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>59</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="23" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="16"/>
@@ -2199,20 +2197,20 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="23" t="s">
+      <c r="E23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H23" s="16"/>
@@ -2254,20 +2252,20 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="23" t="s">
+      <c r="E24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="16"/>
@@ -2309,20 +2307,20 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="23" t="s">
+      <c r="E25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="16"/>
@@ -2364,20 +2362,20 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="23" t="s">
+      <c r="E26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="16"/>
@@ -2463,16 +2461,16 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2511,20 +2509,20 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="23" t="s">
+      <c r="E29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="16"/>
@@ -2566,20 +2564,20 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="23" t="s">
+      <c r="E30" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="16"/>
@@ -2621,20 +2619,20 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="23" t="s">
+      <c r="E31" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H31" s="16"/>
@@ -2676,20 +2674,20 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="23" t="s">
+      <c r="E32" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="16"/>
@@ -2731,20 +2729,20 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="46" t="s">
         <v>60</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>58</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="23" t="s">
+      <c r="E33" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>24</v>
       </c>
       <c r="H33" s="16"/>
@@ -2967,11 +2965,6 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2979,6 +2972,11 @@
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2990,12 +2988,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002338DD58AC86894E92A5BEFCB2D30A8D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5504d931c342a62d8ef3b8250e15468">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a54630e7-b857-4bdf-808b-f1da7c130004" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ff4448945ddeba0822e941b7cd0dfa6" ns2:_="">
     <xsd:import namespace="a54630e7-b857-4bdf-808b-f1da7c130004"/>
@@ -3127,6 +3119,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3137,22 +3135,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB7E142-A516-4C88-8FDA-E57B089332A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3170,6 +3152,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7FE3C5-1193-4974-A741-0617571FD9E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07AC6487-DDB9-4C2F-B4AD-A5CAA4E81AC6}">
   <ds:schemaRefs>
